--- a/data/pca/factorExposure/factorExposure_2010-07-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-21.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01626051842499037</v>
+        <v>-0.01660042507550532</v>
       </c>
       <c r="C2">
-        <v>-0.0006568182630813268</v>
+        <v>-0.0008022349039913281</v>
       </c>
       <c r="D2">
-        <v>0.008621023943901586</v>
+        <v>0.007273645257333592</v>
       </c>
       <c r="E2">
-        <v>0.01861295056908153</v>
+        <v>0.002565632475558771</v>
       </c>
       <c r="F2">
-        <v>-0.04181787591371026</v>
+        <v>-0.01134647502616027</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.120809965622315</v>
+        <v>-0.09523461484069438</v>
       </c>
       <c r="C4">
-        <v>0.09114532431602793</v>
+        <v>-0.01820878816066606</v>
       </c>
       <c r="D4">
-        <v>-0.002898635904277993</v>
+        <v>0.0772290290914472</v>
       </c>
       <c r="E4">
-        <v>0.1584108151444933</v>
+        <v>-0.02753255482719986</v>
       </c>
       <c r="F4">
-        <v>0.02408319251686648</v>
+        <v>0.0418540331138593</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1253285648271249</v>
+        <v>-0.1502968941945296</v>
       </c>
       <c r="C6">
-        <v>0.0601254943963934</v>
+        <v>-0.02427494792174552</v>
       </c>
       <c r="D6">
-        <v>-0.0117966278631117</v>
+        <v>-0.01743659036540123</v>
       </c>
       <c r="E6">
-        <v>0.0402294302737959</v>
+        <v>-0.01091078942828755</v>
       </c>
       <c r="F6">
-        <v>0.02056765612976491</v>
+        <v>0.0386484544211757</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07055859981623891</v>
+        <v>-0.06346643125213969</v>
       </c>
       <c r="C7">
-        <v>0.08775550116333676</v>
+        <v>-0.0008968653159147588</v>
       </c>
       <c r="D7">
-        <v>0.004275678068281119</v>
+        <v>0.04975004389239807</v>
       </c>
       <c r="E7">
-        <v>0.01898721729055578</v>
+        <v>-0.01401235641484402</v>
       </c>
       <c r="F7">
-        <v>0.01403593782353157</v>
+        <v>0.05785757836925909</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.03767314760907892</v>
+        <v>-0.05996033599336711</v>
       </c>
       <c r="C8">
-        <v>0.009944199969605218</v>
+        <v>0.0127860417086781</v>
       </c>
       <c r="D8">
-        <v>0.01155158809717585</v>
+        <v>0.02800468235247561</v>
       </c>
       <c r="E8">
-        <v>0.1168844629562682</v>
+        <v>-0.01040635764541141</v>
       </c>
       <c r="F8">
-        <v>-0.04217803789838594</v>
+        <v>-0.02094023699654191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08898354564323119</v>
+        <v>-0.07353793439868983</v>
       </c>
       <c r="C9">
-        <v>0.06458745156519582</v>
+        <v>-0.01515740517985191</v>
       </c>
       <c r="D9">
-        <v>-0.01462328819559058</v>
+        <v>0.0739547894445813</v>
       </c>
       <c r="E9">
-        <v>0.1360202943412851</v>
+        <v>-0.02078742576185856</v>
       </c>
       <c r="F9">
-        <v>0.03460656064910832</v>
+        <v>0.06256743481067314</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1266235404113553</v>
+        <v>-0.09123391819462824</v>
       </c>
       <c r="C10">
-        <v>-0.1838678422196114</v>
+        <v>-0.01270221167702276</v>
       </c>
       <c r="D10">
-        <v>0.01940868879836809</v>
+        <v>-0.1730770466055904</v>
       </c>
       <c r="E10">
-        <v>-0.05903579054563801</v>
+        <v>0.03371272364094186</v>
       </c>
       <c r="F10">
-        <v>0.01564082453953061</v>
+        <v>-0.05135363883700325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06693155395664416</v>
+        <v>-0.08887664516242592</v>
       </c>
       <c r="C11">
-        <v>0.05711886781943887</v>
+        <v>-0.01432565860716743</v>
       </c>
       <c r="D11">
-        <v>-0.04161441781817937</v>
+        <v>0.1040538956608908</v>
       </c>
       <c r="E11">
-        <v>0.1083785939756727</v>
+        <v>-0.04033705109598343</v>
       </c>
       <c r="F11">
-        <v>0.02000795323906649</v>
+        <v>0.02958538630991765</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07451132281050614</v>
+        <v>-0.09458048478751782</v>
       </c>
       <c r="C12">
-        <v>0.06376714730507378</v>
+        <v>-0.01207231481186804</v>
       </c>
       <c r="D12">
-        <v>-0.05150743991236868</v>
+        <v>0.1076286980510627</v>
       </c>
       <c r="E12">
-        <v>0.1224897733874328</v>
+        <v>-0.03845073515324766</v>
       </c>
       <c r="F12">
-        <v>0.04862080012875035</v>
+        <v>0.03265213002215797</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04186985628411141</v>
+        <v>-0.0439066482839399</v>
       </c>
       <c r="C13">
-        <v>0.04199042425738237</v>
+        <v>-0.004538389248575661</v>
       </c>
       <c r="D13">
-        <v>0.02699282364298359</v>
+        <v>0.03460565179342311</v>
       </c>
       <c r="E13">
-        <v>0.07261280201238848</v>
+        <v>0.01452088365566042</v>
       </c>
       <c r="F13">
-        <v>0.03736294705508516</v>
+        <v>0.02206142709747828</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.049002520841024</v>
+        <v>-0.02244068284747359</v>
       </c>
       <c r="C14">
-        <v>0.03454768866066404</v>
+        <v>-0.01518438007158331</v>
       </c>
       <c r="D14">
-        <v>-0.01456130978191397</v>
+        <v>0.0272643358384792</v>
       </c>
       <c r="E14">
-        <v>0.058338543264207</v>
+        <v>-0.01551099872911537</v>
       </c>
       <c r="F14">
-        <v>0.03652128339223852</v>
+        <v>0.02689482676228856</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02753517756284097</v>
+        <v>-0.03286511944886624</v>
       </c>
       <c r="C15">
-        <v>0.01740199813408184</v>
+        <v>-0.006348516974770791</v>
       </c>
       <c r="D15">
-        <v>0.06819667080479032</v>
+        <v>0.03656094951618886</v>
       </c>
       <c r="E15">
-        <v>0.01850749095649771</v>
+        <v>-0.006988378914710769</v>
       </c>
       <c r="F15">
-        <v>-0.01685648742484571</v>
+        <v>0.03528794063379605</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07900324453682675</v>
+        <v>-0.07650881029811189</v>
       </c>
       <c r="C16">
-        <v>0.0714705832002598</v>
+        <v>-0.006101968095671199</v>
       </c>
       <c r="D16">
-        <v>-0.0371577800073106</v>
+        <v>0.1067736882109495</v>
       </c>
       <c r="E16">
-        <v>0.10362954209464</v>
+        <v>-0.05599033822265692</v>
       </c>
       <c r="F16">
-        <v>0.0412211216500783</v>
+        <v>0.03742913718540267</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01593921706284786</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.00421781266459147</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02502399970131504</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0108310419384477</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.03167371290688856</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04330205387466449</v>
+        <v>-0.06194865469347254</v>
       </c>
       <c r="C20">
-        <v>0.0221920309576033</v>
+        <v>-0.003595702616166538</v>
       </c>
       <c r="D20">
-        <v>0.03028892191200918</v>
+        <v>0.06334436694940697</v>
       </c>
       <c r="E20">
-        <v>0.06045155393911805</v>
+        <v>-0.04962875471282729</v>
       </c>
       <c r="F20">
-        <v>0.03995682576185473</v>
+        <v>0.03465424189322653</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03140202032109147</v>
+        <v>-0.03786476605583226</v>
       </c>
       <c r="C21">
-        <v>0.02454893984772188</v>
+        <v>-0.008287619552834012</v>
       </c>
       <c r="D21">
-        <v>-0.01401910457539668</v>
+        <v>0.03456402538368028</v>
       </c>
       <c r="E21">
-        <v>0.04916233603351647</v>
+        <v>0.01249649670451398</v>
       </c>
       <c r="F21">
-        <v>0.006365337967263427</v>
+        <v>-0.01523991808225487</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05296164053115157</v>
+        <v>-0.04300857738951851</v>
       </c>
       <c r="C22">
-        <v>0.02487106517363363</v>
+        <v>-0.0007798201174300677</v>
       </c>
       <c r="D22">
-        <v>0.6521857987383287</v>
+        <v>-0.001331344378620758</v>
       </c>
       <c r="E22">
-        <v>-0.04055733378530474</v>
+        <v>-0.0352393542011421</v>
       </c>
       <c r="F22">
-        <v>0.1209927706676575</v>
+        <v>-0.02600435906004937</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05352834554720749</v>
+        <v>-0.04304601909500541</v>
       </c>
       <c r="C23">
-        <v>0.02603609766294719</v>
+        <v>-0.0008028606652623836</v>
       </c>
       <c r="D23">
-        <v>0.6543633872565818</v>
+        <v>-0.001152289934872774</v>
       </c>
       <c r="E23">
-        <v>-0.03511729361407934</v>
+        <v>-0.03560391584858358</v>
       </c>
       <c r="F23">
-        <v>0.1208516096143699</v>
+        <v>-0.02542347771037731</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0776789805625958</v>
+        <v>-0.08222777256155309</v>
       </c>
       <c r="C24">
-        <v>0.06840609206060934</v>
+        <v>-0.005990140186858655</v>
       </c>
       <c r="D24">
-        <v>-0.03054134717023191</v>
+        <v>0.1090556254775864</v>
       </c>
       <c r="E24">
-        <v>0.1041963585389572</v>
+        <v>-0.0438059394448712</v>
       </c>
       <c r="F24">
-        <v>0.03417870316415843</v>
+        <v>0.02951457396009832</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07741558769833415</v>
+        <v>-0.08693986997583997</v>
       </c>
       <c r="C25">
-        <v>0.05160406544306</v>
+        <v>-0.008338950647590203</v>
       </c>
       <c r="D25">
-        <v>-0.04994466716544354</v>
+        <v>0.09414850564360312</v>
       </c>
       <c r="E25">
-        <v>0.1107811353527199</v>
+        <v>-0.02573226041784108</v>
       </c>
       <c r="F25">
-        <v>0.03272004713989014</v>
+        <v>0.03953123597134757</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04189816232342677</v>
+        <v>-0.05671178091365547</v>
       </c>
       <c r="C26">
-        <v>0.01916360490137412</v>
+        <v>-0.01559663564824977</v>
       </c>
       <c r="D26">
-        <v>0.01040045883078636</v>
+        <v>0.02770775559855571</v>
       </c>
       <c r="E26">
-        <v>0.06542594568971727</v>
+        <v>-0.02328939698771658</v>
       </c>
       <c r="F26">
-        <v>0.1033999937936272</v>
+        <v>0.005171354822597441</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1534951845676209</v>
+        <v>-0.1368911480380959</v>
       </c>
       <c r="C28">
-        <v>-0.2753624316069184</v>
+        <v>-0.01001543802317759</v>
       </c>
       <c r="D28">
-        <v>-0.005405606121247998</v>
+        <v>-0.2780635226414165</v>
       </c>
       <c r="E28">
-        <v>0.0193560269249474</v>
+        <v>0.06696729356986639</v>
       </c>
       <c r="F28">
-        <v>0.01447105286689205</v>
+        <v>0.05017014125758374</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04277207035125406</v>
+        <v>-0.027629458230256</v>
       </c>
       <c r="C29">
-        <v>0.02931932507152519</v>
+        <v>-0.00943844186542842</v>
       </c>
       <c r="D29">
-        <v>-0.01536561941411304</v>
+        <v>0.02537592346432868</v>
       </c>
       <c r="E29">
-        <v>0.05238021420535068</v>
+        <v>-0.008007690687227842</v>
       </c>
       <c r="F29">
-        <v>0.03911867732204535</v>
+        <v>-0.006183723830868505</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08753830278348099</v>
+        <v>-0.06691559936842707</v>
       </c>
       <c r="C30">
-        <v>0.05490573325895722</v>
+        <v>-0.008700101016312765</v>
       </c>
       <c r="D30">
-        <v>-0.01614223123954765</v>
+        <v>0.06994176253597018</v>
       </c>
       <c r="E30">
-        <v>0.2176639507618716</v>
+        <v>-0.01974672557145149</v>
       </c>
       <c r="F30">
-        <v>0.2359437555725739</v>
+        <v>0.1259342032027656</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02788542397405481</v>
+        <v>-0.04863055341568373</v>
       </c>
       <c r="C31">
-        <v>0.05430696377486968</v>
+        <v>-0.01529964239256032</v>
       </c>
       <c r="D31">
-        <v>0.003364352567528716</v>
+        <v>0.02919558603807637</v>
       </c>
       <c r="E31">
-        <v>0.04135315059028846</v>
+        <v>-0.02636501654895926</v>
       </c>
       <c r="F31">
-        <v>0.002478900110525916</v>
+        <v>-0.00215153878866836</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05854549288029853</v>
+        <v>-0.04799876818148169</v>
       </c>
       <c r="C32">
-        <v>0.003351192865432766</v>
+        <v>-0.00118657735669936</v>
       </c>
       <c r="D32">
-        <v>-0.03638085458646377</v>
+        <v>0.02187147980418431</v>
       </c>
       <c r="E32">
-        <v>0.09399823247375849</v>
+        <v>-0.02335719722998843</v>
       </c>
       <c r="F32">
-        <v>-0.05176804185774124</v>
+        <v>0.00771025427203214</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09206556384923899</v>
+        <v>-0.0925306992015897</v>
       </c>
       <c r="C33">
-        <v>0.06696300240908902</v>
+        <v>-0.01147756592872763</v>
       </c>
       <c r="D33">
-        <v>-0.02263798873389302</v>
+        <v>0.08438349366097542</v>
       </c>
       <c r="E33">
-        <v>0.0728727629664177</v>
+        <v>-0.04294809964604004</v>
       </c>
       <c r="F33">
-        <v>0.07031386442613496</v>
+        <v>0.04452773211323987</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0684591712949378</v>
+        <v>-0.06938839526916568</v>
       </c>
       <c r="C34">
-        <v>0.05356004267043954</v>
+        <v>-0.01374025056815165</v>
       </c>
       <c r="D34">
-        <v>-0.04859915084886658</v>
+        <v>0.08871160065250257</v>
       </c>
       <c r="E34">
-        <v>0.08986868503589809</v>
+        <v>-0.02702083163233335</v>
       </c>
       <c r="F34">
-        <v>0.02997856056704872</v>
+        <v>0.05481776504644927</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02338931756623608</v>
+        <v>-0.02447951278383165</v>
       </c>
       <c r="C35">
-        <v>0.02641487917214213</v>
+        <v>-0.00248547827973197</v>
       </c>
       <c r="D35">
-        <v>-0.007427032100296387</v>
+        <v>0.00968906753817798</v>
       </c>
       <c r="E35">
-        <v>0.02165690796536027</v>
+        <v>-0.01229084065020456</v>
       </c>
       <c r="F35">
-        <v>0.02723030028063824</v>
+        <v>0.01415581598849122</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02970793634286054</v>
+        <v>-0.02657751483792673</v>
       </c>
       <c r="C36">
-        <v>0.01950822629950635</v>
+        <v>-0.007253952336037909</v>
       </c>
       <c r="D36">
-        <v>0.01416884459647026</v>
+        <v>0.03857003694506324</v>
       </c>
       <c r="E36">
-        <v>0.07353401734996005</v>
+        <v>-0.01621152690101572</v>
       </c>
       <c r="F36">
-        <v>0.04812638590780404</v>
+        <v>0.0144981675309505</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02701076935661316</v>
+        <v>-0.003239775441706615</v>
       </c>
       <c r="C38">
-        <v>0.05677967425851882</v>
+        <v>-0.0006263425974945981</v>
       </c>
       <c r="D38">
-        <v>0.01887057374451482</v>
+        <v>0.003863997451974161</v>
       </c>
       <c r="E38">
-        <v>-0.1103118115461662</v>
+        <v>-0.004583305062133436</v>
       </c>
       <c r="F38">
-        <v>0.08339454428636549</v>
+        <v>-0.003802837407682136</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09330000914485879</v>
+        <v>-0.1125113604264708</v>
       </c>
       <c r="C39">
-        <v>0.06888221967613625</v>
+        <v>-0.02010509381504848</v>
       </c>
       <c r="D39">
-        <v>-0.1096517254740904</v>
+        <v>0.1417591982548135</v>
       </c>
       <c r="E39">
-        <v>0.1055104980429925</v>
+        <v>-0.04746101642441464</v>
       </c>
       <c r="F39">
-        <v>0.08402527910729381</v>
+        <v>0.04190002562491806</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02835503507975825</v>
+        <v>-0.03753706234600741</v>
       </c>
       <c r="C40">
-        <v>0.06357145100366515</v>
+        <v>-0.007974593431802882</v>
       </c>
       <c r="D40">
-        <v>0.0215580234425714</v>
+        <v>0.02376775972717611</v>
       </c>
       <c r="E40">
-        <v>0.09168551980841566</v>
+        <v>-0.002191678533768213</v>
       </c>
       <c r="F40">
-        <v>0.01220269610381697</v>
+        <v>-0.01394045518884819</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0318839693132139</v>
+        <v>-0.02675768124895361</v>
       </c>
       <c r="C41">
-        <v>0.02568795919502217</v>
+        <v>-0.006843882976622525</v>
       </c>
       <c r="D41">
-        <v>-0.02833008444237809</v>
+        <v>0.01055337373356157</v>
       </c>
       <c r="E41">
-        <v>-0.002861023643180715</v>
+        <v>-0.01064227731533456</v>
       </c>
       <c r="F41">
-        <v>0.01498970494147786</v>
+        <v>-0.0129529005044076</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04872999292845694</v>
+        <v>-0.04351473343702272</v>
       </c>
       <c r="C43">
-        <v>0.05332583176711317</v>
+        <v>-0.007386712349354395</v>
       </c>
       <c r="D43">
-        <v>0.005362668445140022</v>
+        <v>0.02085416690155293</v>
       </c>
       <c r="E43">
-        <v>0.01589378599014512</v>
+        <v>-0.02545874967860185</v>
       </c>
       <c r="F43">
-        <v>0.03404219154096424</v>
+        <v>-0.01108258694809119</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09544042174638367</v>
+        <v>-0.07434760324707226</v>
       </c>
       <c r="C44">
-        <v>0.08344700880250638</v>
+        <v>-0.02459517512684497</v>
       </c>
       <c r="D44">
-        <v>0.05817377767496051</v>
+        <v>0.09210501867515983</v>
       </c>
       <c r="E44">
-        <v>0.1623276380617009</v>
+        <v>-0.06282122934532033</v>
       </c>
       <c r="F44">
-        <v>0.06266624644535296</v>
+        <v>0.1872010772550899</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04299157522516793</v>
+        <v>-0.02459327667472905</v>
       </c>
       <c r="C46">
-        <v>0.04417804670787895</v>
+        <v>-0.004133329673684671</v>
       </c>
       <c r="D46">
-        <v>0.04396521306896745</v>
+        <v>0.009916830919388194</v>
       </c>
       <c r="E46">
-        <v>0.03369981048719607</v>
+        <v>-0.02290199974436118</v>
       </c>
       <c r="F46">
-        <v>0.01607249127256495</v>
+        <v>-0.003849385011107319</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05251919474841449</v>
+        <v>-0.05312938995004549</v>
       </c>
       <c r="C47">
-        <v>0.04627738184860537</v>
+        <v>-0.003412094906561066</v>
       </c>
       <c r="D47">
-        <v>0.0003814673315009441</v>
+        <v>0.01461059073327525</v>
       </c>
       <c r="E47">
-        <v>0.01169892247879429</v>
+        <v>-0.02295130913053839</v>
       </c>
       <c r="F47">
-        <v>0.04892402602866171</v>
+        <v>-0.04705703173168031</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04604121294751208</v>
+        <v>-0.0480770823101282</v>
       </c>
       <c r="C48">
-        <v>0.0139603209182655</v>
+        <v>-0.003437932164295231</v>
       </c>
       <c r="D48">
-        <v>-0.009139716346283074</v>
+        <v>0.0425156982717842</v>
       </c>
       <c r="E48">
-        <v>0.08380490761658967</v>
+        <v>0.008594898346479824</v>
       </c>
       <c r="F48">
-        <v>0.02290295900849607</v>
+        <v>0.02070447770470395</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2360150301549307</v>
+        <v>-0.2085893815244854</v>
       </c>
       <c r="C49">
-        <v>0.06405265464134849</v>
+        <v>-0.01728330684206895</v>
       </c>
       <c r="D49">
-        <v>-0.03571178728737903</v>
+        <v>-0.007019937374065789</v>
       </c>
       <c r="E49">
-        <v>-0.3053035484627292</v>
+        <v>-0.0435980201729893</v>
       </c>
       <c r="F49">
-        <v>-0.09517997076149926</v>
+        <v>0.03130501125837708</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03735392751361963</v>
+        <v>-0.04876657165837941</v>
       </c>
       <c r="C50">
-        <v>0.04654686800224966</v>
+        <v>-0.01160575860339849</v>
       </c>
       <c r="D50">
-        <v>-0.01409456934637536</v>
+        <v>0.02815496469461512</v>
       </c>
       <c r="E50">
-        <v>0.05148826901760605</v>
+        <v>-0.02862527555085262</v>
       </c>
       <c r="F50">
-        <v>0.05296571594056061</v>
+        <v>0.006153927531893044</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03314680768655123</v>
+        <v>-0.003694627671810945</v>
       </c>
       <c r="C51">
-        <v>0.004530925820519163</v>
+        <v>-0.0008493729160191809</v>
       </c>
       <c r="D51">
-        <v>-0.0004222529873654745</v>
+        <v>-0.001478736013670114</v>
       </c>
       <c r="E51">
-        <v>-0.05381383095262001</v>
+        <v>-0.001764600057078729</v>
       </c>
       <c r="F51">
-        <v>-0.0458807882979773</v>
+        <v>0.003874348129817623</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.01287850336182519</v>
+        <v>-0.1400178176706598</v>
       </c>
       <c r="C52">
-        <v>0.003901705939830604</v>
+        <v>-0.01240014421852228</v>
       </c>
       <c r="D52">
-        <v>-0.02397445470440306</v>
+        <v>0.05415905266344268</v>
       </c>
       <c r="E52">
-        <v>0.006835763795230965</v>
+        <v>-0.01443030082179408</v>
       </c>
       <c r="F52">
-        <v>-0.01972502518785854</v>
+        <v>0.0277673959992765</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1458602599668447</v>
+        <v>-0.1717547998897021</v>
       </c>
       <c r="C53">
-        <v>0.06074007636975255</v>
+        <v>-0.01509039756971267</v>
       </c>
       <c r="D53">
-        <v>0.00634990366167091</v>
+        <v>0.02183645049449395</v>
       </c>
       <c r="E53">
-        <v>-0.09618497088913741</v>
+        <v>-0.03817214761447197</v>
       </c>
       <c r="F53">
-        <v>0.01870618838504868</v>
+        <v>0.05414841274705921</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05839131046783606</v>
+        <v>-0.02201515720729125</v>
       </c>
       <c r="C54">
-        <v>0.03262680134279262</v>
+        <v>-0.01307853423264992</v>
       </c>
       <c r="D54">
-        <v>0.00645217680022207</v>
+        <v>0.02797725126499952</v>
       </c>
       <c r="E54">
-        <v>0.1512474754624392</v>
+        <v>-0.01529699114605097</v>
       </c>
       <c r="F54">
-        <v>0.02676371504894347</v>
+        <v>0.002323378171931287</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0816027980425244</v>
+        <v>-0.1138124326159804</v>
       </c>
       <c r="C55">
-        <v>0.0498339082457563</v>
+        <v>-0.01437401029033965</v>
       </c>
       <c r="D55">
-        <v>-0.03160844344304616</v>
+        <v>0.01938842521044953</v>
       </c>
       <c r="E55">
-        <v>-0.01688111746449225</v>
+        <v>-0.0295655887038352</v>
       </c>
       <c r="F55">
-        <v>0.01129737083467021</v>
+        <v>0.0461378118122029</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1329735603005681</v>
+        <v>-0.1763614564243486</v>
       </c>
       <c r="C56">
-        <v>0.09029512100321399</v>
+        <v>-0.01239422465542016</v>
       </c>
       <c r="D56">
-        <v>-0.01505949431448372</v>
+        <v>0.02120805004757734</v>
       </c>
       <c r="E56">
-        <v>-0.04346276765422811</v>
+        <v>-0.04238384076851971</v>
       </c>
       <c r="F56">
-        <v>0.03443312519569468</v>
+        <v>0.02316038343564919</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03180594204935201</v>
+        <v>-0.04688891731536073</v>
       </c>
       <c r="C58">
-        <v>0.03057451499872338</v>
+        <v>-0.004006468508238496</v>
       </c>
       <c r="D58">
-        <v>0.03711045823537024</v>
+        <v>0.05765086664710801</v>
       </c>
       <c r="E58">
-        <v>0.03149511406397749</v>
+        <v>-0.01287261444221825</v>
       </c>
       <c r="F58">
-        <v>-0.005487298435517309</v>
+        <v>-0.04288421044004437</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2148669289532757</v>
+        <v>-0.1713092009211923</v>
       </c>
       <c r="C59">
-        <v>-0.2426986230978468</v>
+        <v>-0.01194793484527172</v>
       </c>
       <c r="D59">
-        <v>-0.04046891725525227</v>
+        <v>-0.2345651870166742</v>
       </c>
       <c r="E59">
-        <v>-0.00297125223136049</v>
+        <v>0.04591895741898919</v>
       </c>
       <c r="F59">
-        <v>-0.08247254213708359</v>
+        <v>-0.02951908332156535</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2342304200862762</v>
+        <v>-0.239412153692113</v>
       </c>
       <c r="C60">
-        <v>0.1379659659394963</v>
+        <v>0.004554700131713727</v>
       </c>
       <c r="D60">
-        <v>-0.07457201755923622</v>
+        <v>0.05525931854011004</v>
       </c>
       <c r="E60">
-        <v>-0.1412091127801982</v>
+        <v>-0.01155733545940964</v>
       </c>
       <c r="F60">
-        <v>-0.04229754587763208</v>
+        <v>-0.05253672322537664</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09242560369612177</v>
+        <v>-0.08655072614353182</v>
       </c>
       <c r="C61">
-        <v>0.06193383867731374</v>
+        <v>-0.01537495554823513</v>
       </c>
       <c r="D61">
-        <v>-0.06806037110773012</v>
+        <v>0.1019241801720767</v>
       </c>
       <c r="E61">
-        <v>0.1158658925488527</v>
+        <v>-0.03360274732243493</v>
       </c>
       <c r="F61">
-        <v>0.06710211980362281</v>
+        <v>0.02720980228684404</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.134391629013587</v>
+        <v>-0.168115720457886</v>
       </c>
       <c r="C62">
-        <v>0.08171102400464995</v>
+        <v>-0.0163389898476129</v>
       </c>
       <c r="D62">
-        <v>-0.009484429914825064</v>
+        <v>0.02072301187387463</v>
       </c>
       <c r="E62">
-        <v>-0.05226210918112195</v>
+        <v>-0.03809392379667649</v>
       </c>
       <c r="F62">
-        <v>0.06790859718544058</v>
+        <v>0.01078131997557683</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04388670046744839</v>
+        <v>-0.04302942971965436</v>
       </c>
       <c r="C63">
-        <v>0.01839042673327733</v>
+        <v>-0.004639431132261942</v>
       </c>
       <c r="D63">
-        <v>-0.008865226689236552</v>
+        <v>0.04450369846747506</v>
       </c>
       <c r="E63">
-        <v>0.05833239358114858</v>
+        <v>-0.01338253300445826</v>
       </c>
       <c r="F63">
-        <v>0.04702468383043471</v>
+        <v>0.01432042098515917</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0985864421812742</v>
+        <v>-0.1120834934252638</v>
       </c>
       <c r="C64">
-        <v>0.05834537051135859</v>
+        <v>-0.01213972190677032</v>
       </c>
       <c r="D64">
-        <v>-0.005388188698197385</v>
+        <v>0.03903626733705327</v>
       </c>
       <c r="E64">
-        <v>0.04778254522905465</v>
+        <v>-0.01882086413174294</v>
       </c>
       <c r="F64">
-        <v>0.04746643104827426</v>
+        <v>0.01653230524672617</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1182281797007394</v>
+        <v>-0.1418246120084132</v>
       </c>
       <c r="C65">
-        <v>0.03259188121305157</v>
+        <v>-0.03053585907794749</v>
       </c>
       <c r="D65">
-        <v>-0.02739201115229</v>
+        <v>-0.04429242228123303</v>
       </c>
       <c r="E65">
-        <v>0.06467079806286416</v>
+        <v>-0.002696214654435471</v>
       </c>
       <c r="F65">
-        <v>0.06268578283242487</v>
+        <v>0.03991729434509154</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1069510385388963</v>
+        <v>-0.1350108907995773</v>
       </c>
       <c r="C66">
-        <v>0.1064095216816112</v>
+        <v>-0.01769300316026138</v>
       </c>
       <c r="D66">
-        <v>-0.110547094015747</v>
+        <v>0.1290991100966065</v>
       </c>
       <c r="E66">
-        <v>0.09022322452853161</v>
+        <v>-0.05821528491288175</v>
       </c>
       <c r="F66">
-        <v>0.1068658293164273</v>
+        <v>0.04571269273228093</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0851823718998688</v>
+        <v>-0.06600126864062573</v>
       </c>
       <c r="C67">
-        <v>0.07195493750678787</v>
+        <v>-0.004415943731770725</v>
       </c>
       <c r="D67">
-        <v>0.02410480383449775</v>
+        <v>0.05642341635152045</v>
       </c>
       <c r="E67">
-        <v>-0.08767688077093892</v>
+        <v>-0.01942274345409537</v>
       </c>
       <c r="F67">
-        <v>0.09547910791698221</v>
+        <v>-0.04436623520453007</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1307686149445335</v>
+        <v>-0.1109473404913507</v>
       </c>
       <c r="C68">
-        <v>-0.2717157839183099</v>
+        <v>-0.02085255679903771</v>
       </c>
       <c r="D68">
-        <v>-0.01825600720091838</v>
+        <v>-0.2754376864907456</v>
       </c>
       <c r="E68">
-        <v>0.03040976955961538</v>
+        <v>0.08455604879900086</v>
       </c>
       <c r="F68">
-        <v>0.03231941628503598</v>
+        <v>0.05282586481586343</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04282257912205079</v>
+        <v>-0.04086311249737909</v>
       </c>
       <c r="C69">
-        <v>0.01922347027975308</v>
+        <v>-0.001155106672731854</v>
       </c>
       <c r="D69">
-        <v>0.0122275906493496</v>
+        <v>0.009254311968052712</v>
       </c>
       <c r="E69">
-        <v>-0.01720584254646419</v>
+        <v>-0.02601862019371748</v>
       </c>
       <c r="F69">
-        <v>0.04778327834487338</v>
+        <v>-0.01727915647943951</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06093145226616727</v>
+        <v>-0.06568533019256938</v>
       </c>
       <c r="C70">
-        <v>0.06313181615652871</v>
+        <v>0.0269114659309974</v>
       </c>
       <c r="D70">
-        <v>-0.06169425685413105</v>
+        <v>0.003563918416314715</v>
       </c>
       <c r="E70">
-        <v>0.01430539201385182</v>
+        <v>0.0443166010651733</v>
       </c>
       <c r="F70">
-        <v>0.09442205212335389</v>
+        <v>-0.3442376651925415</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1477274299781436</v>
+        <v>-0.1297770861658157</v>
       </c>
       <c r="C71">
-        <v>-0.2789072282398042</v>
+        <v>-0.02423500629704952</v>
       </c>
       <c r="D71">
-        <v>-0.009231951202685955</v>
+        <v>-0.2909556545206511</v>
       </c>
       <c r="E71">
-        <v>0.04220763612187137</v>
+        <v>0.09259737588765009</v>
       </c>
       <c r="F71">
-        <v>0.04399408541613393</v>
+        <v>0.05464763961846163</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.125934420468999</v>
+        <v>-0.1383864678880281</v>
       </c>
       <c r="C72">
-        <v>0.02987576252910342</v>
+        <v>-0.02397681252031397</v>
       </c>
       <c r="D72">
-        <v>-0.01182324775465463</v>
+        <v>0.01175559493771249</v>
       </c>
       <c r="E72">
-        <v>0.01454362141167989</v>
+        <v>-0.04222921789384172</v>
       </c>
       <c r="F72">
-        <v>0.05858442329886668</v>
+        <v>0.02567249736796033</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2158349198374799</v>
+        <v>-0.2107093943319471</v>
       </c>
       <c r="C73">
-        <v>0.1309115477993653</v>
+        <v>-0.01185914494543353</v>
       </c>
       <c r="D73">
-        <v>-0.1315604039491812</v>
+        <v>0.0260696968588039</v>
       </c>
       <c r="E73">
-        <v>-0.465140083700981</v>
+        <v>-0.07254308243514368</v>
       </c>
       <c r="F73">
-        <v>-0.1010607640127891</v>
+        <v>0.01863783954717872</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08414332578306433</v>
+        <v>-0.09372338881647882</v>
       </c>
       <c r="C74">
-        <v>0.08400919789360634</v>
+        <v>-0.01165627447558698</v>
       </c>
       <c r="D74">
-        <v>-0.005334773711480259</v>
+        <v>0.03022283248471759</v>
       </c>
       <c r="E74">
-        <v>-0.0573051037300461</v>
+        <v>-0.05196337667890193</v>
       </c>
       <c r="F74">
-        <v>0.06134179630496064</v>
+        <v>0.03906568403245599</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08574848594805208</v>
+        <v>-0.1293731543590881</v>
       </c>
       <c r="C75">
-        <v>0.06351671737374927</v>
+        <v>-0.02574404540446489</v>
       </c>
       <c r="D75">
-        <v>-0.006642193943599228</v>
+        <v>0.04118119913144112</v>
       </c>
       <c r="E75">
-        <v>-0.01811586195336883</v>
+        <v>-0.05895943997759448</v>
       </c>
       <c r="F75">
-        <v>0.001926264992034946</v>
+        <v>0.003892935914851383</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.08184676553074885</v>
+        <v>-0.009520125730154181</v>
       </c>
       <c r="C76">
-        <v>0.0834213541866953</v>
+        <v>-0.002118319715743413</v>
       </c>
       <c r="D76">
-        <v>8.142419219943093e-05</v>
+        <v>0.004573992134908688</v>
       </c>
       <c r="E76">
-        <v>-0.05667106979632464</v>
+        <v>-0.009908028063047334</v>
       </c>
       <c r="F76">
-        <v>-0.008281022547106109</v>
+        <v>0.003430751090602105</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06790990411787112</v>
+        <v>-0.08141109422731005</v>
       </c>
       <c r="C77">
-        <v>0.0154158621268434</v>
+        <v>-0.01248210156451304</v>
       </c>
       <c r="D77">
-        <v>-0.04533095397420249</v>
+        <v>0.09684944136155571</v>
       </c>
       <c r="E77">
-        <v>0.2949048133112739</v>
+        <v>-0.0312680624017145</v>
       </c>
       <c r="F77">
-        <v>0.01765322403941515</v>
+        <v>0.04464652610745588</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1917519475815856</v>
+        <v>-0.1111212048017466</v>
       </c>
       <c r="C78">
-        <v>0.1496809822931366</v>
+        <v>-0.04489577854100477</v>
       </c>
       <c r="D78">
-        <v>0.1748280251909909</v>
+        <v>0.1154324470058566</v>
       </c>
       <c r="E78">
-        <v>0.2949360966772409</v>
+        <v>-0.09247867848475051</v>
       </c>
       <c r="F78">
-        <v>-0.7664388077825705</v>
+        <v>0.0785711640718272</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1298586778860583</v>
+        <v>-0.1621376850597105</v>
       </c>
       <c r="C79">
-        <v>0.07910970825739869</v>
+        <v>-0.01982866927095565</v>
       </c>
       <c r="D79">
-        <v>0.006279275876086723</v>
+        <v>0.02538234765392416</v>
       </c>
       <c r="E79">
-        <v>-0.01984537376611664</v>
+        <v>-0.04866462232428358</v>
       </c>
       <c r="F79">
-        <v>0.04676164242878111</v>
+        <v>0.003057876180326029</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07043144462000528</v>
+        <v>-0.08046165433376633</v>
       </c>
       <c r="C80">
-        <v>0.0389507330970041</v>
+        <v>0.001244871510542286</v>
       </c>
       <c r="D80">
-        <v>-0.08480292483493038</v>
+        <v>0.05152240191130442</v>
       </c>
       <c r="E80">
-        <v>-0.02088813368536482</v>
+        <v>-0.02774195046546101</v>
       </c>
       <c r="F80">
-        <v>0.03842265469213387</v>
+        <v>-0.01195275093947626</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1196992508215176</v>
+        <v>-0.1215602480422862</v>
       </c>
       <c r="C81">
-        <v>0.05223361229784144</v>
+        <v>-0.02938102219427754</v>
       </c>
       <c r="D81">
-        <v>0.01100594469399852</v>
+        <v>0.03179991990801646</v>
       </c>
       <c r="E81">
-        <v>0.02428457112968216</v>
+        <v>-0.05817594938843652</v>
       </c>
       <c r="F81">
-        <v>0.0715757745717344</v>
+        <v>-0.006825090654765838</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1185562646526072</v>
+        <v>-0.1619682965412989</v>
       </c>
       <c r="C82">
-        <v>0.05920765415829338</v>
+        <v>-0.02022461832593885</v>
       </c>
       <c r="D82">
-        <v>-0.007022232463291798</v>
+        <v>0.024213081729047</v>
       </c>
       <c r="E82">
-        <v>-0.04410666810436064</v>
+        <v>-0.03484211611335385</v>
       </c>
       <c r="F82">
-        <v>0.05429116905397499</v>
+        <v>0.04823652804344526</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0852099631617588</v>
+        <v>-0.06659157130440559</v>
       </c>
       <c r="C83">
-        <v>0.08323891444340061</v>
+        <v>-0.004553437891536725</v>
       </c>
       <c r="D83">
-        <v>-0.009297150705005424</v>
+        <v>0.04606907606938187</v>
       </c>
       <c r="E83">
-        <v>-0.0223318503630012</v>
+        <v>-0.003699213916685274</v>
       </c>
       <c r="F83">
-        <v>0.07251812458791093</v>
+        <v>-0.02799828414814659</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0367884732550568</v>
+        <v>-0.06068382208269907</v>
       </c>
       <c r="C84">
-        <v>-0.05526826963296951</v>
+        <v>-0.01203512665090357</v>
       </c>
       <c r="D84">
-        <v>-0.03472889346060307</v>
+        <v>0.05773059202518507</v>
       </c>
       <c r="E84">
-        <v>0.1271614562247615</v>
+        <v>0.003836165531612064</v>
       </c>
       <c r="F84">
-        <v>-0.1229876399333342</v>
+        <v>0.01439933315509548</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1207105740966417</v>
+        <v>-0.1372705402515669</v>
       </c>
       <c r="C85">
-        <v>0.05664931280276851</v>
+        <v>-0.02516773634392004</v>
       </c>
       <c r="D85">
-        <v>-0.01204200317389921</v>
+        <v>0.02429376789874513</v>
       </c>
       <c r="E85">
-        <v>-0.0323436933997575</v>
+        <v>-0.04098608794016655</v>
       </c>
       <c r="F85">
-        <v>0.05918324229231123</v>
+        <v>0.03830360902990224</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0868724406604596</v>
+        <v>-0.0999931061023675</v>
       </c>
       <c r="C86">
-        <v>0.01825097448688635</v>
+        <v>0.006347838560269081</v>
       </c>
       <c r="D86">
-        <v>0.02192000018208716</v>
+        <v>0.008682387511122032</v>
       </c>
       <c r="E86">
-        <v>0.04617695573618535</v>
+        <v>-0.1293741843216256</v>
       </c>
       <c r="F86">
-        <v>-0.182939030585317</v>
+        <v>-0.8236278012228069</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1161485740057957</v>
+        <v>-0.1026166998965814</v>
       </c>
       <c r="C87">
-        <v>0.06657252729078839</v>
+        <v>-0.02601458501330222</v>
       </c>
       <c r="D87">
-        <v>0.01770937627472203</v>
+        <v>0.06797731312010635</v>
       </c>
       <c r="E87">
-        <v>0.08783165685197666</v>
+        <v>0.05280784606701711</v>
       </c>
       <c r="F87">
-        <v>0.04001276129330644</v>
+        <v>0.09384355245398752</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06197761077482447</v>
+        <v>-0.06067084540600958</v>
       </c>
       <c r="C88">
-        <v>0.0631790871637235</v>
+        <v>-0.003797330255382817</v>
       </c>
       <c r="D88">
-        <v>-0.03928990616292807</v>
+        <v>0.05790369283794979</v>
       </c>
       <c r="E88">
-        <v>0.008993274613234039</v>
+        <v>-0.0239739634619874</v>
       </c>
       <c r="F88">
-        <v>0.03158444445175487</v>
+        <v>0.007937268449567672</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2376045222408843</v>
+        <v>-0.1319393686946273</v>
       </c>
       <c r="C89">
-        <v>-0.3662381572826897</v>
+        <v>-0.003678244954779961</v>
       </c>
       <c r="D89">
-        <v>0.04769148131808316</v>
+        <v>-0.2801152431037255</v>
       </c>
       <c r="E89">
-        <v>-0.01152782762991998</v>
+        <v>0.08991908893907835</v>
       </c>
       <c r="F89">
-        <v>-0.02780432653854775</v>
+        <v>0.03801188551973783</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1564515286364828</v>
+        <v>-0.1404248802361424</v>
       </c>
       <c r="C90">
-        <v>-0.260659253789662</v>
+        <v>-0.02031343660453891</v>
       </c>
       <c r="D90">
-        <v>-0.008478205931673066</v>
+        <v>-0.2770860873140799</v>
       </c>
       <c r="E90">
-        <v>0.006133157875402744</v>
+        <v>0.1046417157380824</v>
       </c>
       <c r="F90">
-        <v>0.01897142548097909</v>
+        <v>0.04259953030815337</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07104003284451264</v>
+        <v>-0.1160890261394843</v>
       </c>
       <c r="C91">
-        <v>0.05838218505721147</v>
+        <v>-0.01581430671815095</v>
       </c>
       <c r="D91">
-        <v>0.01000452869108944</v>
+        <v>0.006054555759586237</v>
       </c>
       <c r="E91">
-        <v>-0.006487315034865711</v>
+        <v>-0.0591868192166996</v>
       </c>
       <c r="F91">
-        <v>-0.01297147822424592</v>
+        <v>-0.03266782802914966</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.172802775210201</v>
+        <v>-0.1444691995484244</v>
       </c>
       <c r="C92">
-        <v>-0.2947123463734254</v>
+        <v>-0.01128466761246594</v>
       </c>
       <c r="D92">
-        <v>0.02659609996403803</v>
+        <v>-0.3133712998855153</v>
       </c>
       <c r="E92">
-        <v>0.03964887175440976</v>
+        <v>0.09788583513304747</v>
       </c>
       <c r="F92">
-        <v>-0.02898010382084757</v>
+        <v>0.03416834410369909</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1732762006780473</v>
+        <v>-0.145809050093429</v>
       </c>
       <c r="C93">
-        <v>-0.3036735737926762</v>
+        <v>-0.01658091985219953</v>
       </c>
       <c r="D93">
-        <v>-0.04136325445834863</v>
+        <v>-0.2809661285546378</v>
       </c>
       <c r="E93">
-        <v>0.01368037881782685</v>
+        <v>0.069296193127836</v>
       </c>
       <c r="F93">
-        <v>0.02156109542836013</v>
+        <v>0.03157892340313339</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1136501586432594</v>
+        <v>-0.1331363101352925</v>
       </c>
       <c r="C94">
-        <v>0.08061660681050645</v>
+        <v>-0.02341859276308995</v>
       </c>
       <c r="D94">
-        <v>0.007966831323722541</v>
+        <v>0.05378651589415126</v>
       </c>
       <c r="E94">
-        <v>-0.05438953727320524</v>
+        <v>-0.06138721732591605</v>
       </c>
       <c r="F94">
-        <v>-0.003644968268705013</v>
+        <v>0.02293704901702678</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1498540564224016</v>
+        <v>-0.1274791555610076</v>
       </c>
       <c r="C95">
-        <v>0.06024067632882808</v>
+        <v>-0.006640285980737235</v>
       </c>
       <c r="D95">
-        <v>0.009310812097128213</v>
+        <v>0.08602985687166197</v>
       </c>
       <c r="E95">
-        <v>0.04536546768667922</v>
+        <v>-0.03962392894481519</v>
       </c>
       <c r="F95">
-        <v>0.0008318899234759398</v>
+        <v>-0.009061230095006222</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09452790574936658</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.989428720840631</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.01113461702049476</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06083078561519384</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05082927114539523</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1166903064603776</v>
+        <v>-0.1867683721555651</v>
       </c>
       <c r="C97">
-        <v>-0.0175841938665048</v>
+        <v>0.01317082072391669</v>
       </c>
       <c r="D97">
-        <v>0.0288149238138334</v>
+        <v>-0.006843861266238215</v>
       </c>
       <c r="E97">
-        <v>0.05158717628860697</v>
+        <v>-0.01279777144385193</v>
       </c>
       <c r="F97">
-        <v>0.2894627931135978</v>
+        <v>-0.1694660083436504</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2528622479626152</v>
+        <v>-0.2075812073114997</v>
       </c>
       <c r="C98">
-        <v>0.1286141047342735</v>
+        <v>-0.0074973685505284</v>
       </c>
       <c r="D98">
-        <v>0.0553951522636603</v>
+        <v>0.01556781945204176</v>
       </c>
       <c r="E98">
-        <v>-0.2572137752237086</v>
+        <v>0.08582880098023869</v>
       </c>
       <c r="F98">
-        <v>-0.09259097964229851</v>
+        <v>-0.1455485480060018</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07471030368092639</v>
+        <v>-0.0581355077455956</v>
       </c>
       <c r="C99">
-        <v>0.05691151804311557</v>
+        <v>0.002838150996414695</v>
       </c>
       <c r="D99">
-        <v>0.01633592380444129</v>
+        <v>0.03020560688708827</v>
       </c>
       <c r="E99">
-        <v>-0.03592253482311778</v>
+        <v>-0.02599622508240884</v>
       </c>
       <c r="F99">
-        <v>-0.008270161635468733</v>
+        <v>0.00511576429366582</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1232955754172296</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.0472734680795887</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3227016354342677</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9073427109373993</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05808915470006819</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04291783103895968</v>
+        <v>-0.02750743499364412</v>
       </c>
       <c r="C101">
-        <v>0.02883287841115247</v>
+        <v>-0.009352722264500443</v>
       </c>
       <c r="D101">
-        <v>-0.01542366593110949</v>
+        <v>0.02502495238178917</v>
       </c>
       <c r="E101">
-        <v>0.05087656908270926</v>
+        <v>-0.008164784577736256</v>
       </c>
       <c r="F101">
-        <v>0.03680492628830494</v>
+        <v>-0.008275203011277836</v>
       </c>
     </row>
     <row r="102" spans="1:6">
